--- a/data/trans_orig/MCS12_SP_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>166197</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>144275</v>
+        <v>144349</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>189119</v>
+        <v>188474</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2394731660769675</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2078851451794185</v>
+        <v>0.2079922046819556</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2725008160671295</v>
+        <v>0.2715721776542805</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -765,19 +765,19 @@
         <v>102443</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85446</v>
+        <v>86339</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119893</v>
+        <v>122309</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1488244737551684</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1241310861508177</v>
+        <v>0.1254286765267572</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1741738490820625</v>
+        <v>0.177684224843323</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>265</v>
@@ -786,19 +786,19 @@
         <v>268641</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>241309</v>
+        <v>240930</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>301768</v>
+        <v>298458</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1943344335991663</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1745624233723748</v>
+        <v>0.1742881662278492</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2182986626751641</v>
+        <v>0.2159039189179201</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>263973</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>239076</v>
+        <v>240090</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288785</v>
+        <v>291580</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3803577463366029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3444836797486256</v>
+        <v>0.3459455221710545</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4161098681940528</v>
+        <v>0.4201369489580902</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>260</v>
@@ -836,19 +836,19 @@
         <v>257397</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>233556</v>
+        <v>231807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282171</v>
+        <v>280858</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3739325709601365</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3392982059660877</v>
+        <v>0.3367563865235813</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4099235128350149</v>
+        <v>0.4080153904979048</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>515</v>
@@ -857,19 +857,19 @@
         <v>521370</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>485217</v>
+        <v>486440</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>559555</v>
+        <v>555745</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3771583149381697</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3510053233824637</v>
+        <v>0.3518904714683334</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4047815033982033</v>
+        <v>0.4020251403922329</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>166489</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>145207</v>
+        <v>144626</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>188747</v>
+        <v>188449</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2398934099140535</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2092286293257001</v>
+        <v>0.2083918753062989</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.271964772178842</v>
+        <v>0.271535542574214</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>190</v>
@@ -907,19 +907,19 @@
         <v>187482</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>165975</v>
+        <v>164328</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>210950</v>
+        <v>209244</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2723644523697875</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2411199433019831</v>
+        <v>0.2387271353666607</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3064569367248977</v>
+        <v>0.303978700659528</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>355</v>
@@ -928,19 +928,19 @@
         <v>353971</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>321189</v>
+        <v>319920</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>385878</v>
+        <v>387216</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2560624429264827</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2323475778116997</v>
+        <v>0.2314295294237728</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2791440830297564</v>
+        <v>0.2801114866808189</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>97353</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>79966</v>
+        <v>81852</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116876</v>
+        <v>119365</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1402756776723761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1152232912486478</v>
+        <v>0.1179404246042327</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1684063637695962</v>
+        <v>0.1719927934334541</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -978,19 +978,19 @@
         <v>141028</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>121364</v>
+        <v>121735</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>162900</v>
+        <v>162353</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2048785029149076</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1763117271145767</v>
+        <v>0.1768505334325354</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2366529908339575</v>
+        <v>0.2358585768029939</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>244</v>
@@ -999,19 +999,19 @@
         <v>238381</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>210602</v>
+        <v>211158</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>267917</v>
+        <v>267121</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1724448085361814</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.152349546804957</v>
+        <v>0.1527513392431545</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1938107075618576</v>
+        <v>0.193234814956872</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>213490</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>187416</v>
+        <v>187649</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>240128</v>
+        <v>239742</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2219692597150598</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1948601478038197</v>
+        <v>0.1951020007857824</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2496650122188884</v>
+        <v>0.249264381184669</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>142</v>
@@ -1124,19 +1124,19 @@
         <v>150406</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>127632</v>
+        <v>129023</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>172498</v>
+        <v>174960</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1553150313521844</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.131798219610098</v>
+        <v>0.1332342821764685</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.178127748139622</v>
+        <v>0.1806704550921791</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>338</v>
@@ -1145,19 +1145,19 @@
         <v>363896</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>331169</v>
+        <v>331574</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>400784</v>
+        <v>401840</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1885283085138302</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1715732471641301</v>
+        <v>0.1717829167252229</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2076391476204811</v>
+        <v>0.2081863706840961</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>334062</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>304878</v>
+        <v>302131</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>366491</v>
+        <v>362924</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3473295239597007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3169871122469881</v>
+        <v>0.3141308300286044</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3810474232669757</v>
+        <v>0.3773383465229566</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>258</v>
@@ -1195,19 +1195,19 @@
         <v>271390</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>245603</v>
+        <v>243384</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>300749</v>
+        <v>299964</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2802478836359115</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2536194924916204</v>
+        <v>0.2513281211951404</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3105651914394207</v>
+        <v>0.3097542229461297</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>573</v>
@@ -1216,19 +1216,19 @@
         <v>605452</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>562536</v>
+        <v>565991</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>649970</v>
+        <v>646030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3136741368122634</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2914401993542579</v>
+        <v>0.2932304307153266</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.336738534039792</v>
+        <v>0.3346972557495274</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>226677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>201081</v>
+        <v>199625</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>258771</v>
+        <v>254188</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2356802061916809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2090671573112887</v>
+        <v>0.2075533379805692</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2690483944650042</v>
+        <v>0.2642840450662306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>245</v>
@@ -1266,19 +1266,19 @@
         <v>259065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>233042</v>
+        <v>234520</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>285535</v>
+        <v>287748</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2675205155470543</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2406483490063934</v>
+        <v>0.2421740118285666</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2948544197358373</v>
+        <v>0.297139430722808</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>456</v>
@@ -1287,19 +1287,19 @@
         <v>485742</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>447901</v>
+        <v>452150</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>523851</v>
+        <v>529096</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2516547401040432</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2320497334271983</v>
+        <v>0.2342512658242769</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2713981469508693</v>
+        <v>0.2741157630589989</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>187571</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>163863</v>
+        <v>160894</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>211248</v>
+        <v>210904</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1950210101335586</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1703712619144777</v>
+        <v>0.1672842161359732</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2196380146843325</v>
+        <v>0.2192801227635486</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>263</v>
@@ -1337,19 +1337,19 @@
         <v>287532</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>259188</v>
+        <v>258173</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>315875</v>
+        <v>316298</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2969165694648498</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2676473909550534</v>
+        <v>0.2665992461631075</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3261847970131951</v>
+        <v>0.3266219207234067</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>437</v>
@@ -1358,19 +1358,19 @@
         <v>475103</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>437663</v>
+        <v>435532</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>514069</v>
+        <v>512472</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2461428145698632</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2267459713136262</v>
+        <v>0.2256416647128271</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2663304596195932</v>
+        <v>0.265502757858426</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>180876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>158231</v>
+        <v>157837</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>202222</v>
+        <v>203407</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2665790772066073</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2332034397795624</v>
+        <v>0.2326232921540276</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2980387344400637</v>
+        <v>0.2997854330087809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>122</v>
@@ -1483,19 +1483,19 @@
         <v>119402</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>100865</v>
+        <v>100520</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>138732</v>
+        <v>139410</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1746054038627594</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1474980858653693</v>
+        <v>0.1469929843449602</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.202871096784404</v>
+        <v>0.2038625426266798</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>295</v>
@@ -1504,19 +1504,19 @@
         <v>300279</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>272169</v>
+        <v>271252</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>331052</v>
+        <v>330176</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2204122519891552</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1997794160142304</v>
+        <v>0.199105665699006</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2430006084715652</v>
+        <v>0.2423580033548121</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>201161</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>178275</v>
+        <v>178211</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>225984</v>
+        <v>224025</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2964745002371628</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2627445274564801</v>
+        <v>0.2626507120126629</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3330590227853617</v>
+        <v>0.3301728916559473</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>192</v>
@@ -1554,19 +1554,19 @@
         <v>189770</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>167001</v>
+        <v>166722</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>214678</v>
+        <v>213693</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.277505820062076</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.244210744342472</v>
+        <v>0.2438027437566333</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3139297879565371</v>
+        <v>0.3124899416634361</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>381</v>
@@ -1575,19 +1575,19 @@
         <v>390930</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>359293</v>
+        <v>361681</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>430033</v>
+        <v>426419</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2869530392537024</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2637300036071414</v>
+        <v>0.2654835187008876</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3156552363563304</v>
+        <v>0.3130027612357123</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>178335</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156907</v>
+        <v>155310</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>202297</v>
+        <v>204216</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2628332733168253</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.231253127296895</v>
+        <v>0.228899228118434</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2981486062580279</v>
+        <v>0.3009772472338696</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>199</v>
@@ -1625,19 +1625,19 @@
         <v>197068</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>173498</v>
+        <v>174945</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>222947</v>
+        <v>220698</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2881782461896354</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2537109349745859</v>
+        <v>0.2558268362909879</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3260223168090006</v>
+        <v>0.3227335573161157</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>369</v>
@@ -1646,19 +1646,19 @@
         <v>375403</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>343669</v>
+        <v>342978</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>407184</v>
+        <v>409229</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2755553587812781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2522622519502093</v>
+        <v>0.2517548293821866</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2988833724106566</v>
+        <v>0.3003846981991128</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>118137</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98082</v>
+        <v>99652</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>138714</v>
+        <v>141910</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1741131492394046</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1445549410742696</v>
+        <v>0.1468691559500708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.204439700816143</v>
+        <v>0.2091501081809117</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -1696,19 +1696,19 @@
         <v>177601</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>155079</v>
+        <v>157199</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>200001</v>
+        <v>201320</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2597105298855291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2267769531153406</v>
+        <v>0.2298762842597071</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2924666784209459</v>
+        <v>0.2943961634454224</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>292</v>
@@ -1717,19 +1717,19 @@
         <v>295738</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>264289</v>
+        <v>265688</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>325894</v>
+        <v>326849</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2170793499758644</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1939946071403704</v>
+        <v>0.1950219037852507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2392142780042531</v>
+        <v>0.2399155761216636</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>214868</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>190539</v>
+        <v>191063</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>241700</v>
+        <v>242369</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2280435145991335</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2022230598874848</v>
+        <v>0.2027788019253201</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2565212619862436</v>
+        <v>0.257230811775324</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>161</v>
@@ -1842,19 +1842,19 @@
         <v>169106</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>147156</v>
+        <v>146662</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>196395</v>
+        <v>194298</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1628194662966276</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1416850885198595</v>
+        <v>0.1412100814596398</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1890934508791504</v>
+        <v>0.1870742025717162</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>395</v>
@@ -1863,19 +1863,19 @@
         <v>383974</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>349488</v>
+        <v>351816</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>418136</v>
+        <v>419291</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1938445478761577</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1764345465930326</v>
+        <v>0.1776099226812665</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2110907850324293</v>
+        <v>0.2116741684478962</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>285804</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259433</v>
+        <v>258487</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>314339</v>
+        <v>312838</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3033300731484277</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2753413353204845</v>
+        <v>0.2743381056865412</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3336142555884331</v>
+        <v>0.3320216016715704</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>277</v>
@@ -1913,19 +1913,19 @@
         <v>288384</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>261457</v>
+        <v>260349</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>320479</v>
+        <v>316244</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2776632513924703</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2517365982611359</v>
+        <v>0.2506700117023904</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3085650603146713</v>
+        <v>0.3044871618980495</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>585</v>
@@ -1934,19 +1934,19 @@
         <v>574189</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>535742</v>
+        <v>534759</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>615740</v>
+        <v>616498</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2898721721753779</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.270463092677305</v>
+        <v>0.2699666333421703</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3108488741129209</v>
+        <v>0.311231344672474</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>234072</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>209643</v>
+        <v>206789</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>262124</v>
+        <v>260282</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2484259927756096</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.222498609662346</v>
+        <v>0.2194690080774865</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.278197236258247</v>
+        <v>0.2762431410819882</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>280</v>
@@ -1984,19 +1984,19 @@
         <v>290145</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>264323</v>
+        <v>264054</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>321064</v>
+        <v>321672</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2793585773253012</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2544961617435818</v>
+        <v>0.2542371679637549</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3091282830351099</v>
+        <v>0.3097134813507591</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>521</v>
@@ -2005,19 +2005,19 @@
         <v>524218</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>485899</v>
+        <v>485066</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>563601</v>
+        <v>561834</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2646448945028411</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2453001241141468</v>
+        <v>0.2448796371345884</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2845271073350321</v>
+        <v>0.2836351474696943</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>207478</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>184809</v>
+        <v>183178</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>235078</v>
+        <v>233558</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2202004194768292</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1961420062644429</v>
+        <v>0.1944103110077807</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2494936133647984</v>
+        <v>0.2478805131466312</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>279</v>
@@ -2055,19 +2055,19 @@
         <v>290976</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>262415</v>
+        <v>262445</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>320782</v>
+        <v>320436</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2801587049856009</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2526596000193227</v>
+        <v>0.2526884639833378</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3088564247284651</v>
+        <v>0.3085236955116983</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>490</v>
@@ -2076,19 +2076,19 @@
         <v>498454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>463620</v>
+        <v>463163</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>538498</v>
+        <v>536625</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2516383854456233</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2340530856978945</v>
+        <v>0.2338223768949773</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2718540171548374</v>
+        <v>0.2709087346382175</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>775431</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>726550</v>
+        <v>727588</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>828115</v>
+        <v>825910</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.236661384436829</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2217428882373933</v>
+        <v>0.2220597595506123</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2527404829599398</v>
+        <v>0.2520675910329023</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>528</v>
@@ -2201,19 +2201,19 @@
         <v>541358</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>498350</v>
+        <v>500850</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>585575</v>
+        <v>581910</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1602031638745793</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.147476011578912</v>
+        <v>0.1482155516346746</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1732881800913794</v>
+        <v>0.1722036099004695</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1293</v>
@@ -2222,19 +2222,19 @@
         <v>1316789</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1256767</v>
+        <v>1252431</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1384957</v>
+        <v>1379175</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1978426522314297</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1888244628810605</v>
+        <v>0.1881730314611358</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2080845036800276</v>
+        <v>0.2072158660530506</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>1084999</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1032007</v>
+        <v>1029178</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1141911</v>
+        <v>1136399</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3311414700565793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3149681426636225</v>
+        <v>0.3141047136494167</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3485109911039784</v>
+        <v>0.34682855234985</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>987</v>
@@ -2272,19 +2272,19 @@
         <v>1006941</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>955646</v>
+        <v>952125</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1066597</v>
+        <v>1063269</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2979823868317861</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.282802604218703</v>
+        <v>0.2817607756046638</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3156363400280712</v>
+        <v>0.3146514305530292</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2054</v>
@@ -2293,19 +2293,19 @@
         <v>2091941</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2010819</v>
+        <v>2009362</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2159642</v>
+        <v>2162412</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3143062159476794</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3021180451233294</v>
+        <v>0.3018991083118027</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.324478047548262</v>
+        <v>0.3248941799373185</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>805573</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>754480</v>
+        <v>754252</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>857369</v>
+        <v>860086</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2458607451275041</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2302669922306674</v>
+        <v>0.2301973711990143</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2616688691622402</v>
+        <v>0.2624980844308191</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>914</v>
@@ -2343,19 +2343,19 @@
         <v>933761</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>883785</v>
+        <v>880628</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>986138</v>
+        <v>984111</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2763261830410501</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2615369334512464</v>
+        <v>0.2606028674120588</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2918261153827796</v>
+        <v>0.2912262162765219</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1701</v>
@@ -2364,19 +2364,19 @@
         <v>1739334</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1667207</v>
+        <v>1660252</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1803994</v>
+        <v>1807915</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2613284040291823</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2504915649871888</v>
+        <v>0.249446654530155</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2710432837518846</v>
+        <v>0.2716324817629403</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>610539</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>567755</v>
+        <v>565139</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>656883</v>
+        <v>658637</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1863364003790876</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1732786090292094</v>
+        <v>0.1724801653234511</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.200480537593351</v>
+        <v>0.2010159286557666</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>868</v>
@@ -2414,19 +2414,19 @@
         <v>897137</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>848940</v>
+        <v>844505</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>952736</v>
+        <v>945437</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2654882662525845</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2512254481176807</v>
+        <v>0.2499129579972557</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2819415622131851</v>
+        <v>0.2797816737309765</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1463</v>
@@ -2435,19 +2435,19 @@
         <v>1507677</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1447334</v>
+        <v>1439658</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1579485</v>
+        <v>1577958</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2265227277917087</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2174564544668633</v>
+        <v>0.2163032369262539</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2373116122914047</v>
+        <v>0.2370823018040929</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>199242</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>178116</v>
+        <v>173335</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>225839</v>
+        <v>226413</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2832276478422628</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2531967983691862</v>
+        <v>0.2464006219526456</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3210357976279624</v>
+        <v>0.3218520317061409</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>118</v>
@@ -2800,19 +2800,19 @@
         <v>124207</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>102310</v>
+        <v>104857</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>147173</v>
+        <v>144692</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1781890157223721</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1467757267326902</v>
+        <v>0.1504303351009179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2111372460039033</v>
+        <v>0.2075773930643129</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>308</v>
@@ -2821,19 +2821,19 @@
         <v>323449</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>291935</v>
+        <v>293639</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>358074</v>
+        <v>353484</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2309490428463063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2084474157678826</v>
+        <v>0.2096646420020063</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2556723607537787</v>
+        <v>0.252394809990631</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>154086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>130775</v>
+        <v>130810</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>177037</v>
+        <v>177504</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2190367569046074</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1858995431618172</v>
+        <v>0.1859505417013006</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.251662818704776</v>
+        <v>0.2523269121209175</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>104</v>
@@ -2871,19 +2871,19 @@
         <v>109300</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>89284</v>
+        <v>92370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129846</v>
+        <v>130362</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1568040292679877</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1280880100485972</v>
+        <v>0.1325161060523536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1862790739692367</v>
+        <v>0.1870193675617287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>246</v>
@@ -2892,19 +2892,19 @@
         <v>263386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>234380</v>
+        <v>232485</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>294712</v>
+        <v>295876</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1880630082915988</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1673524677225987</v>
+        <v>0.1659991201253062</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2104304365406788</v>
+        <v>0.2112616419162727</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>208764</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>183403</v>
+        <v>181786</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>233417</v>
+        <v>233967</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2967641305323674</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.260712855309805</v>
+        <v>0.2584134809747511</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3318086487519565</v>
+        <v>0.3325908940751178</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>205</v>
@@ -2942,19 +2942,19 @@
         <v>223892</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>198507</v>
+        <v>199458</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>251573</v>
+        <v>250741</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3211995643741118</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2847816792629874</v>
+        <v>0.286145522177667</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3609116268896163</v>
+        <v>0.3597171127703332</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>409</v>
@@ -2963,19 +2963,19 @@
         <v>432657</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>394066</v>
+        <v>398240</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>465691</v>
+        <v>469417</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3089258501581458</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.281371729161467</v>
+        <v>0.2843519788075753</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3325134614697148</v>
+        <v>0.3351734388431918</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>141377</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>119966</v>
+        <v>119862</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>163115</v>
+        <v>163533</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2009714647207624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1705350776959854</v>
+        <v>0.1703868547969278</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2318728097891065</v>
+        <v>0.2324660267951226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>223</v>
@@ -3013,19 +3013,19 @@
         <v>239651</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>215560</v>
+        <v>216539</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>268752</v>
+        <v>267170</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3438073906355283</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3092468108908493</v>
+        <v>0.3106507106939927</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3855563515868768</v>
+        <v>0.3832865148103787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>361</v>
@@ -3034,19 +3034,19 @@
         <v>381028</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>345426</v>
+        <v>345711</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>413049</v>
+        <v>413016</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2720620987039491</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2466413837094158</v>
+        <v>0.2468448563139524</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2949255383428293</v>
+        <v>0.2949020839038671</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>280985</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>253375</v>
+        <v>249920</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>312206</v>
+        <v>312144</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2760311298036752</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2489077174619003</v>
+        <v>0.2455134397864911</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.306701378368317</v>
+        <v>0.3066404321693237</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>215</v>
@@ -3159,19 +3159,19 @@
         <v>236685</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>209891</v>
+        <v>211060</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>265689</v>
+        <v>265393</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2293047379805386</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2033460689049036</v>
+        <v>0.2044794860329334</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2574050861855409</v>
+        <v>0.2571175211441311</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>476</v>
@@ -3180,19 +3180,19 @@
         <v>517670</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>477464</v>
+        <v>477659</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>560655</v>
+        <v>560717</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2525056911314866</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.232894155433282</v>
+        <v>0.2329895039641495</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2734729414976566</v>
+        <v>0.27350307324351</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>249802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>221195</v>
+        <v>222689</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>275458</v>
+        <v>275964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.245397737036771</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2172951018964417</v>
+        <v>0.2187626576824347</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2706010856323973</v>
+        <v>0.2710981773745091</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>180</v>
@@ -3230,19 +3230,19 @@
         <v>196362</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170448</v>
+        <v>171438</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>224725</v>
+        <v>223223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1902394744405368</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1651332980389209</v>
+        <v>0.1660922122793926</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2177183518869899</v>
+        <v>0.2162629777828978</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>414</v>
@@ -3251,19 +3251,19 @@
         <v>446164</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>410217</v>
+        <v>405656</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>487261</v>
+        <v>483865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2176270859476864</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.200092897145801</v>
+        <v>0.197868558125298</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2376730984978342</v>
+        <v>0.2360164306153006</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>254055</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>225103</v>
+        <v>230138</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>283533</v>
+        <v>289919</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2495761703908112</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2211346104365244</v>
+        <v>0.2260809122655522</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.278533890457045</v>
+        <v>0.2848074268966349</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>251</v>
@@ -3301,19 +3301,19 @@
         <v>272745</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243444</v>
+        <v>244094</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>303276</v>
+        <v>301105</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2642404526185008</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2358530704482262</v>
+        <v>0.2364834256594325</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2938193186527185</v>
+        <v>0.2917166121581056</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>483</v>
@@ -3322,19 +3322,19 @@
         <v>526800</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>488208</v>
+        <v>486155</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>570940</v>
+        <v>564421</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2569592286317507</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2381351946752711</v>
+        <v>0.2371336648996332</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2784896782930288</v>
+        <v>0.275309715235611</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>233105</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>206840</v>
+        <v>204006</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>264528</v>
+        <v>262297</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2289949627687427</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2031932638720214</v>
+        <v>0.2004097461827282</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2598643321348941</v>
+        <v>0.2576722303930519</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>294</v>
@@ -3372,19 +3372,19 @@
         <v>326392</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>293878</v>
+        <v>294930</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>356577</v>
+        <v>358464</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3162153349604237</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2847147561128069</v>
+        <v>0.2857344151271705</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3454586481463466</v>
+        <v>0.3472868979739657</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>503</v>
@@ -3393,19 +3393,19 @@
         <v>559497</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>518644</v>
+        <v>518535</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>606982</v>
+        <v>601990</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2729079942890763</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2529808707979773</v>
+        <v>0.2529275595791066</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2960700563203955</v>
+        <v>0.2936346973443987</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>273763</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>244417</v>
+        <v>245417</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>300282</v>
+        <v>303706</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3613448995193389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3226101732338366</v>
+        <v>0.3239297580731522</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3963479374902096</v>
+        <v>0.4008667276169989</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>193</v>
@@ -3518,19 +3518,19 @@
         <v>217440</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>192110</v>
+        <v>192528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>244620</v>
+        <v>244961</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2797828668647226</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2471899313400174</v>
+        <v>0.2477279904896137</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3147552870260051</v>
+        <v>0.3151938959609506</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>442</v>
@@ -3539,19 +3539,19 @@
         <v>491203</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>456178</v>
+        <v>451870</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>532134</v>
+        <v>530578</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3200444028168783</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2972236152650806</v>
+        <v>0.2944168958377213</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.346712903697709</v>
+        <v>0.3456988155563762</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>139672</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>118660</v>
+        <v>119058</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>161887</v>
+        <v>163825</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1843557598261263</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1566218891615259</v>
+        <v>0.1571465975118377</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2136777528627913</v>
+        <v>0.2162357845679236</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>90</v>
@@ -3589,19 +3589,19 @@
         <v>99159</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>81115</v>
+        <v>81711</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>118737</v>
+        <v>121820</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1275886991848117</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1043715610744868</v>
+        <v>0.1051384502407664</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1527800287454382</v>
+        <v>0.1567472145757828</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>217</v>
@@ -3610,19 +3610,19 @@
         <v>238831</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>211288</v>
+        <v>209737</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>271765</v>
+        <v>271116</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1556106718909951</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1376650707871943</v>
+        <v>0.1366544826317299</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1770693358035911</v>
+        <v>0.1766461510988029</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>190031</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>165825</v>
+        <v>164779</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>215656</v>
+        <v>215020</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2508254358394299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2188757179606447</v>
+        <v>0.2174949233302003</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2846485520382651</v>
+        <v>0.2838090758738447</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>202</v>
@@ -3660,19 +3660,19 @@
         <v>220016</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>194905</v>
+        <v>193944</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248393</v>
+        <v>245081</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2830969072237333</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2507871703701855</v>
+        <v>0.2495496588308816</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3196101395710405</v>
+        <v>0.3153488697150874</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>376</v>
@@ -3681,19 +3681,19 @@
         <v>410047</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>377139</v>
+        <v>374632</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>448891</v>
+        <v>449600</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2671667131974254</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2457255587042163</v>
+        <v>0.2440920948306348</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2924756388838204</v>
+        <v>0.2929378666119191</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>154157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>131603</v>
+        <v>130778</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>180182</v>
+        <v>178513</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2034739048151049</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1737048965025402</v>
+        <v>0.1726155668745839</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2378258548151899</v>
+        <v>0.2356218957140398</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>220</v>
@@ -3731,19 +3731,19 @@
         <v>240560</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>215972</v>
+        <v>214153</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>266634</v>
+        <v>267201</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3095315267267324</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2778935023824018</v>
+        <v>0.275553115005694</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3430809961935828</v>
+        <v>0.3438108524513864</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>359</v>
@@ -3752,19 +3752,19 @@
         <v>394716</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>357193</v>
+        <v>360070</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>431685</v>
+        <v>431040</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2571782120947012</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2327297641567781</v>
+        <v>0.2346041395152553</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2812652792724507</v>
+        <v>0.2808448481749157</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>243386</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>218603</v>
+        <v>216727</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>270989</v>
+        <v>272821</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2568068906747989</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2306573549772725</v>
+        <v>0.2286781811848775</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2859316676640529</v>
+        <v>0.2878655205955207</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>184</v>
@@ -3877,19 +3877,19 @@
         <v>192934</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>168076</v>
+        <v>166803</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>217607</v>
+        <v>220733</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.183414593392951</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1597831076330762</v>
+        <v>0.158573218535261</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2068702601584024</v>
+        <v>0.2098420142020165</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>420</v>
@@ -3898,19 +3898,19 @@
         <v>436320</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>399162</v>
+        <v>398328</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>473685</v>
+        <v>476339</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2181992328812424</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1996167230493757</v>
+        <v>0.1992000765624933</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2368850695646563</v>
+        <v>0.2382121373230531</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>206650</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>181694</v>
+        <v>179286</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233829</v>
+        <v>231786</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2180454681386824</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1917130409668061</v>
+        <v>0.1891722335005928</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2467229722710477</v>
+        <v>0.2445674507804531</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>176</v>
@@ -3948,19 +3948,19 @@
         <v>180899</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>157382</v>
+        <v>157557</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>207745</v>
+        <v>208481</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1719734551959707</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1496164873290542</v>
+        <v>0.1497833553529747</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1974949044895847</v>
+        <v>0.1981949325171651</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>377</v>
@@ -3969,19 +3969,19 @@
         <v>387549</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>353348</v>
+        <v>349691</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>423209</v>
+        <v>423503</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1938095118404122</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1767058775307676</v>
+        <v>0.1748771091112361</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.211642530762148</v>
+        <v>0.2117895633960506</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>262763</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>235043</v>
+        <v>236023</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>293061</v>
+        <v>291946</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2772529019751764</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2480034359834047</v>
+        <v>0.2490374611381229</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3092211778856909</v>
+        <v>0.3080450505614705</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>308</v>
@@ -4019,19 +4019,19 @@
         <v>321978</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>290372</v>
+        <v>288703</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>349070</v>
+        <v>351539</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3060912798088576</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2760447028447848</v>
+        <v>0.2744584900883222</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3318464816722836</v>
+        <v>0.3341944121624542</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>557</v>
@@ -4040,19 +4040,19 @@
         <v>584741</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>544420</v>
+        <v>546233</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>627219</v>
+        <v>629668</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2924231891028342</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2722588647896613</v>
+        <v>0.2731657779470896</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3136657199497788</v>
+        <v>0.3148906019329835</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>234940</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>205171</v>
+        <v>209438</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>261259</v>
+        <v>262211</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2478947392113422</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2164848856237166</v>
+        <v>0.220986946694631</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2756654290890533</v>
+        <v>0.2766699134394643</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>335</v>
@@ -4090,19 +4090,19 @@
         <v>356090</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>327110</v>
+        <v>324744</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>388663</v>
+        <v>388704</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3385206716022207</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3109705135016742</v>
+        <v>0.3087212338347803</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3694863148884027</v>
+        <v>0.3695256570934385</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>559</v>
@@ -4111,19 +4111,19 @@
         <v>591030</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>550365</v>
+        <v>551782</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>634955</v>
+        <v>635032</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2955680661755112</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2752320241583685</v>
+        <v>0.275940625277863</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3175345125849429</v>
+        <v>0.3175732360279627</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>997376</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>948852</v>
+        <v>943137</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1055795</v>
+        <v>1054004</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2910535930450179</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2768932143492414</v>
+        <v>0.2752253967408553</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3081012824827117</v>
+        <v>0.3075785766963139</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>710</v>
@@ -4236,19 +4236,19 @@
         <v>771265</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>718947</v>
+        <v>724424</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>817043</v>
+        <v>827762</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2167505121837277</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2020473613071753</v>
+        <v>0.2035865718756989</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2296154547280449</v>
+        <v>0.2326278379591582</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1646</v>
@@ -4257,19 +4257,19 @@
         <v>1768642</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1693692</v>
+        <v>1697682</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1843501</v>
+        <v>1847545</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2532024836711049</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2424724803916902</v>
+        <v>0.243043756364874</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2639194596493848</v>
+        <v>0.2644985047107306</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>750210</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>700282</v>
+        <v>702738</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>803280</v>
+        <v>798588</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.218925710763864</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2043558320127138</v>
+        <v>0.2050723511240073</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2344126012741114</v>
+        <v>0.2330432381808674</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>550</v>
@@ -4307,19 +4307,19 @@
         <v>585720</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>537157</v>
+        <v>539048</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>628285</v>
+        <v>632212</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.164606294819585</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1509586084169336</v>
+        <v>0.1514899978879582</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1765685355028452</v>
+        <v>0.1776720915499016</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1254</v>
@@ -4328,19 +4328,19 @@
         <v>1335930</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1268853</v>
+        <v>1267162</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1405925</v>
+        <v>1403868</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1912545815159095</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1816516388267115</v>
+        <v>0.1814096529849796</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.201275188120643</v>
+        <v>0.2009806921768502</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>915614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>865271</v>
+        <v>863103</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>970826</v>
+        <v>966373</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2671939014142596</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2525026347292947</v>
+        <v>0.2518700094104719</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.283305760379078</v>
+        <v>0.2820061075820993</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>966</v>
@@ -4378,19 +4378,19 @@
         <v>1038630</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>985008</v>
+        <v>982109</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1097539</v>
+        <v>1093768</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2918887040485966</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2768191485803739</v>
+        <v>0.2760045279322172</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3084439025743928</v>
+        <v>0.3073841929959465</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1825</v>
@@ -4399,19 +4399,19 @@
         <v>1954245</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1881383</v>
+        <v>1874792</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2033863</v>
+        <v>2028014</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2797738061052163</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2693427474788953</v>
+        <v>0.2683991382405985</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2911722039478739</v>
+        <v>0.2903348205521639</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>763578</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>714716</v>
+        <v>708279</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>819531</v>
+        <v>817110</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2228267947768585</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2085679867192891</v>
+        <v>0.206689313518852</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2391548963825768</v>
+        <v>0.2384484213747543</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1072</v>
@@ -4449,19 +4449,19 @@
         <v>1162693</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1110747</v>
+        <v>1103643</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1230124</v>
+        <v>1219124</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3267544889480907</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3121557966451844</v>
+        <v>0.310159459133678</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3457045972580773</v>
+        <v>0.3426132049751353</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1782</v>
@@ -4470,19 +4470,19 @@
         <v>1926272</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1848177</v>
+        <v>1853477</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2007503</v>
+        <v>2006743</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2757691287077692</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2645889654742643</v>
+        <v>0.2653476587535326</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2873984251039456</v>
+        <v>0.2872896069623712</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>180305</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>156403</v>
+        <v>159068</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>203003</v>
+        <v>204030</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2671978746004366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2317762488173283</v>
+        <v>0.2357262410475716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3008336343173385</v>
+        <v>0.3023568005145609</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>148</v>
@@ -4835,19 +4835,19 @@
         <v>148455</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>126476</v>
+        <v>129071</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>168253</v>
+        <v>173568</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.220639566311801</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1879729595489799</v>
+        <v>0.1918301655365698</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2500650213649118</v>
+        <v>0.2579635798025165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>319</v>
@@ -4856,19 +4856,19 @@
         <v>328760</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>300432</v>
+        <v>296165</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>361954</v>
+        <v>359163</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2439525948592035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2229320464135677</v>
+        <v>0.2197657239408741</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2685839830432871</v>
+        <v>0.2665124987447997</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>166306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>142322</v>
+        <v>144537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>187766</v>
+        <v>189265</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2464516865806199</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.210909268649528</v>
+        <v>0.2141925130792043</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2782540926350599</v>
+        <v>0.2804752249706275</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>141</v>
@@ -4906,19 +4906,19 @@
         <v>143342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>123556</v>
+        <v>122046</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>165378</v>
+        <v>165408</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2130401477540432</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.183633212657958</v>
+        <v>0.181390333327433</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2457906307329078</v>
+        <v>0.2458362657527416</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>300</v>
@@ -4927,19 +4927,19 @@
         <v>309647</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>276094</v>
+        <v>282554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>342129</v>
+        <v>339697</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2297702263824962</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.204872014160125</v>
+        <v>0.2096662712608208</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2538726867625409</v>
+        <v>0.2520685573294608</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>205017</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>181910</v>
+        <v>182690</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>230132</v>
+        <v>229772</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3038185597017261</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2695758400408347</v>
+        <v>0.2707313417987849</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3410377135240145</v>
+        <v>0.3405043336022942</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>198</v>
@@ -4977,19 +4977,19 @@
         <v>197225</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>175659</v>
+        <v>173198</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>218766</v>
+        <v>219171</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2931229029566394</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2610711932099986</v>
+        <v>0.2574130072921483</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3251381058147857</v>
+        <v>0.3257399244527188</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>398</v>
@@ -4998,19 +4998,19 @@
         <v>402241</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>370064</v>
+        <v>365535</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>437958</v>
+        <v>437024</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.298478513162354</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.274601496944237</v>
+        <v>0.2712413446676825</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3249820343090092</v>
+        <v>0.3242885774742055</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>123173</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>104894</v>
+        <v>102898</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146348</v>
+        <v>143561</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1825318791172174</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1554447948587904</v>
+        <v>0.1524872233519088</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2168763846641135</v>
+        <v>0.2127460074419368</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>179</v>
@@ -5048,19 +5048,19 @@
         <v>183818</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162718</v>
+        <v>161779</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>207861</v>
+        <v>209146</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2731973829775164</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2418379465508517</v>
+        <v>0.2404426159152677</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3089309255151779</v>
+        <v>0.3108412202316153</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>301</v>
@@ -5069,19 +5069,19 @@
         <v>306990</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>277790</v>
+        <v>277637</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>339618</v>
+        <v>335876</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2277986655959463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2061310316556958</v>
+        <v>0.2060175538405505</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2520099748746579</v>
+        <v>0.2492325909987303</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>275959</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>246447</v>
+        <v>248829</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>303670</v>
+        <v>303355</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2699042805875788</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2410405165751145</v>
+        <v>0.2433703348945833</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2970082473929382</v>
+        <v>0.2966992495279689</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>228</v>
@@ -5194,19 +5194,19 @@
         <v>248768</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>222361</v>
+        <v>219300</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>278614</v>
+        <v>278257</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2385314369512959</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.213211447097356</v>
+        <v>0.2102768427458826</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2671500647014564</v>
+        <v>0.2668072075764536</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>481</v>
@@ -5215,19 +5215,19 @@
         <v>524726</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>483156</v>
+        <v>485818</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>567125</v>
+        <v>568477</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2540622965714217</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2339348450669509</v>
+        <v>0.2352235447312472</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2745909611491642</v>
+        <v>0.2752455076351594</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>270924</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>242409</v>
+        <v>243105</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>301899</v>
+        <v>303126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2649805782588536</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2370911945687894</v>
+        <v>0.2377718785826531</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2952753931583386</v>
+        <v>0.2964758814823907</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>221</v>
@@ -5265,19 +5265,19 @@
         <v>230461</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>205319</v>
+        <v>206225</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>257203</v>
+        <v>258674</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2209783242717285</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1968708570348947</v>
+        <v>0.1977391118693528</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2466202666520232</v>
+        <v>0.2480304161880663</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>476</v>
@@ -5286,19 +5286,19 @@
         <v>501386</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>461518</v>
+        <v>462238</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>540385</v>
+        <v>542726</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2427612661550334</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2234583034068813</v>
+        <v>0.2238069993220745</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2616439420304386</v>
+        <v>0.2627774666018828</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>308887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>281384</v>
+        <v>278765</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>342605</v>
+        <v>339156</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3021107890332829</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2752106383328546</v>
+        <v>0.272649639568765</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3350890330603008</v>
+        <v>0.3317155858659335</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>289</v>
@@ -5336,19 +5336,19 @@
         <v>304665</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>277028</v>
+        <v>277558</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>336119</v>
+        <v>335387</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2921284693022329</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.265629385783155</v>
+        <v>0.2661368641948591</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3222882822025951</v>
+        <v>0.321587084676842</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>574</v>
@@ -5357,19 +5357,19 @@
         <v>613552</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>568338</v>
+        <v>570763</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>656183</v>
+        <v>657363</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2970701318503753</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2751782513877072</v>
+        <v>0.276352614907473</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3177111850452341</v>
+        <v>0.3182823549510316</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>166661</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>143257</v>
+        <v>145416</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>193115</v>
+        <v>193503</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1630043521202848</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1401139869283128</v>
+        <v>0.1422258184757008</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1888786752475269</v>
+        <v>0.1892573750119965</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>239</v>
@@ -5407,19 +5407,19 @@
         <v>259020</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>230700</v>
+        <v>232905</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>289114</v>
+        <v>287836</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2483617694747426</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2212076569424128</v>
+        <v>0.2233213328905233</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2772177811817903</v>
+        <v>0.2759924456620841</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>397</v>
@@ -5428,19 +5428,19 @@
         <v>425680</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>386264</v>
+        <v>390106</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>462681</v>
+        <v>464863</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2061063054231695</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1870214956679336</v>
+        <v>0.1888820310401796</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2240214389010643</v>
+        <v>0.2250778018682563</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>271954</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>245201</v>
+        <v>244548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>298746</v>
+        <v>297441</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3580451094823976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3228226298243532</v>
+        <v>0.3219630498535919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3933185156403779</v>
+        <v>0.3916008682615795</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>239</v>
@@ -5553,19 +5553,19 @@
         <v>253922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>225893</v>
+        <v>226014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>282339</v>
+        <v>281746</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3234630754037595</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2877581780751227</v>
+        <v>0.2879119755012906</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3596628104673921</v>
+        <v>0.3589066653948786</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>493</v>
@@ -5574,19 +5574,19 @@
         <v>525876</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>487591</v>
+        <v>487365</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>562514</v>
+        <v>568274</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3404690891149491</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3156820443354858</v>
+        <v>0.3155360486857617</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3641895251759047</v>
+        <v>0.3679192235463005</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>163391</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>138132</v>
+        <v>139648</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>185478</v>
+        <v>188702</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2151148286419357</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1818593956258452</v>
+        <v>0.1838553897401763</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2441939289945913</v>
+        <v>0.24843875724199</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>138</v>
@@ -5624,19 +5624,19 @@
         <v>147599</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>124746</v>
+        <v>126226</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>169211</v>
+        <v>172626</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1880211478719731</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1589094222005365</v>
+        <v>0.160795608110351</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.215552418297708</v>
+        <v>0.2199020549934512</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>285</v>
@@ -5645,19 +5645,19 @@
         <v>310990</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>279333</v>
+        <v>277559</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>342614</v>
+        <v>349290</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.201344699216953</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1808494744055533</v>
+        <v>0.1797008138496812</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2218193199636824</v>
+        <v>0.2261416763010857</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>182846</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>159820</v>
+        <v>160416</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>209519</v>
+        <v>211274</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2407282719569643</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2104132123166508</v>
+        <v>0.2111982949643521</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2758452666612888</v>
+        <v>0.2781557694152831</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>169</v>
@@ -5695,19 +5695,19 @@
         <v>174849</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>152636</v>
+        <v>153348</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>199147</v>
+        <v>198227</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2227350667031916</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1944375900067438</v>
+        <v>0.1953451375761464</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2536866751796696</v>
+        <v>0.2525145613419024</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>336</v>
@@ -5716,19 +5716,19 @@
         <v>357695</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>322627</v>
+        <v>325425</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>391368</v>
+        <v>393767</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2315833806733327</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.208879463969879</v>
+        <v>0.2106907223851672</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2533841727940732</v>
+        <v>0.2549375607184108</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>141362</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120229</v>
+        <v>121087</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>164801</v>
+        <v>164512</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1861117899187024</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1582892849910945</v>
+        <v>0.1594195442572437</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2169714446200453</v>
+        <v>0.2165907608986823</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -5766,19 +5766,19 @@
         <v>208641</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>184368</v>
+        <v>183011</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>235860</v>
+        <v>234099</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2657807100210758</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2348600956610724</v>
+        <v>0.2331318169470377</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3004542281344503</v>
+        <v>0.2982107406992736</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>318</v>
@@ -5787,19 +5787,19 @@
         <v>350002</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>316129</v>
+        <v>317538</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>388507</v>
+        <v>385899</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2266028309947652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2046718583479472</v>
+        <v>0.2055844994676221</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2515317678969621</v>
+        <v>0.249843457392321</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>230896</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>205146</v>
+        <v>203379</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>257894</v>
+        <v>257100</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2462716089799035</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2188065238021731</v>
+        <v>0.2169224747881993</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2750669895678081</v>
+        <v>0.2742204658008544</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>201</v>
@@ -5912,19 +5912,19 @@
         <v>222134</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>196179</v>
+        <v>195893</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>249964</v>
+        <v>252195</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2128174019307418</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1879502460947377</v>
+        <v>0.1876769952798174</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2394796350604521</v>
+        <v>0.2416173235937232</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>428</v>
@@ -5933,19 +5933,19 @@
         <v>453030</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>418536</v>
+        <v>416588</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>493545</v>
+        <v>491544</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2286478325190669</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2112380672395183</v>
+        <v>0.210255171128135</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2490956898098087</v>
+        <v>0.2480858568073285</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>200185</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>177469</v>
+        <v>175730</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>227108</v>
+        <v>227377</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2135153245667102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1892868136404913</v>
+        <v>0.1874319721047699</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2422314984392818</v>
+        <v>0.242518512450293</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>193</v>
@@ -5983,19 +5983,19 @@
         <v>206005</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>178416</v>
+        <v>181167</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>232567</v>
+        <v>236184</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1973644229505024</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.170932385715453</v>
+        <v>0.1735681387180693</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2228123944751727</v>
+        <v>0.2262777677559037</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>396</v>
@@ -6004,19 +6004,19 @@
         <v>406190</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>370815</v>
+        <v>371191</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>445787</v>
+        <v>444798</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2050069812272096</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1871528642222685</v>
+        <v>0.1873428048018015</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2249919761571339</v>
+        <v>0.2244928196572407</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>297457</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>268751</v>
+        <v>269132</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>326109</v>
+        <v>325981</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3172652953240895</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2866473612956291</v>
+        <v>0.2870539508797755</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3478250845519442</v>
+        <v>0.3476878252372811</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>294</v>
@@ -6054,19 +6054,19 @@
         <v>318103</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>287228</v>
+        <v>284327</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>348173</v>
+        <v>348064</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.304760794385783</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2751804241612069</v>
+        <v>0.2724017998146309</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3335694801992913</v>
+        <v>0.3334648686313845</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>591</v>
@@ -6075,19 +6075,19 @@
         <v>615560</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>570796</v>
+        <v>576474</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>657460</v>
+        <v>656622</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3106778867818041</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2880847268661151</v>
+        <v>0.2909508563940729</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3318250508154925</v>
+        <v>0.3314020395322507</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>209028</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>182617</v>
+        <v>184155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>235877</v>
+        <v>235023</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2229477711292968</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1947776645397683</v>
+        <v>0.1964175558220947</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2515841632388957</v>
+        <v>0.2506727919689172</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>271</v>
@@ -6125,19 +6125,19 @@
         <v>297537</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>267748</v>
+        <v>268955</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>328302</v>
+        <v>328949</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2850573807329728</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2565183324765445</v>
+        <v>0.2576744446174229</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3145316894009469</v>
+        <v>0.3151515830631106</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>476</v>
@@ -6146,19 +6146,19 @@
         <v>506565</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>469104</v>
+        <v>467035</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>547525</v>
+        <v>544517</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2556672994719195</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2367601796048416</v>
+        <v>0.2357161594543221</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2763400092980047</v>
+        <v>0.2748218516840752</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>959114</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>903990</v>
+        <v>903280</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1015828</v>
+        <v>1013407</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2825618071916485</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2663220278922696</v>
+        <v>0.2661126593390079</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2992703954062799</v>
+        <v>0.2985570931914373</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>816</v>
@@ -6271,19 +6271,19 @@
         <v>873279</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>820403</v>
+        <v>824395</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>928473</v>
+        <v>930356</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2463728315960663</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2314553388742235</v>
+        <v>0.2325814329718964</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2619444687491532</v>
+        <v>0.2624755586222616</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1721</v>
@@ -6292,19 +6292,19 @@
         <v>1832393</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1754111</v>
+        <v>1758210</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1910392</v>
+        <v>1903782</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2640756659497336</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.25279406042401</v>
+        <v>0.2533848590357881</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2753166353174664</v>
+        <v>0.2743639146618007</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>800806</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>748611</v>
+        <v>752273</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>851167</v>
+        <v>853654</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2359231572286177</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2205461341663623</v>
+        <v>0.2216251726168582</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2507600769025993</v>
+        <v>0.2514925711581258</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>693</v>
@@ -6342,19 +6342,19 @@
         <v>727406</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>684007</v>
+        <v>679485</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>784208</v>
+        <v>782634</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.205218726811631</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1929747268569997</v>
+        <v>0.1916989681715898</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2212439325978483</v>
+        <v>0.2207998006441553</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1457</v>
@@ -6363,19 +6363,19 @@
         <v>1528212</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1460885</v>
+        <v>1453633</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1599995</v>
+        <v>1596567</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2202386448018483</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2105357301795368</v>
+        <v>0.2094906501524528</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2305836152956674</v>
+        <v>0.2300896036056449</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>994207</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>937856</v>
+        <v>938459</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1046621</v>
+        <v>1054637</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2929006414211555</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2762991116876276</v>
+        <v>0.2764769345665078</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3083420023913802</v>
+        <v>0.3107035361488003</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>950</v>
@@ -6413,19 +6413,19 @@
         <v>994841</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>937996</v>
+        <v>930932</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1054363</v>
+        <v>1045592</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2806685584879475</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2646312265148519</v>
+        <v>0.262638069079705</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.297460957137173</v>
+        <v>0.2949863635166793</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1899</v>
@@ -6434,19 +6434,19 @@
         <v>1989049</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1912978</v>
+        <v>1919728</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2063381</v>
+        <v>2058608</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2866522188265767</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2756892675639193</v>
+        <v>0.27666208268411</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2973646102041739</v>
+        <v>0.2966767744381676</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>640223</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>596646</v>
+        <v>591792</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>688380</v>
+        <v>687534</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1886143941585783</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.175776171615337</v>
+        <v>0.1743461693111342</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2028016049469306</v>
+        <v>0.2025525008157279</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>879</v>
@@ -6484,19 +6484,19 @@
         <v>949015</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>894244</v>
+        <v>893689</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>999648</v>
+        <v>1002626</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2677398831043551</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2522875846355306</v>
+        <v>0.2521310107500963</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.282024611949249</v>
+        <v>0.2828648553389156</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1492</v>
@@ -6505,19 +6505,19 @@
         <v>1589239</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1518512</v>
+        <v>1516159</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1664097</v>
+        <v>1659080</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2290334704218415</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2188406940289223</v>
+        <v>0.2185015646067007</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2398217258925491</v>
+        <v>0.2390986908604577</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>245585</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>219624</v>
+        <v>219114</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>274500</v>
+        <v>274643</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3586374389690327</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3207265593013443</v>
+        <v>0.3199814450566014</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4008633030571717</v>
+        <v>0.401073311610543</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>345</v>
@@ -6870,19 +6870,19 @@
         <v>230934</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>209176</v>
+        <v>208237</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>252763</v>
+        <v>252586</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3176393338895326</v>
+        <v>0.3176393338895325</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2877120609191415</v>
+        <v>0.2864217370588388</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3476641139564198</v>
+        <v>0.347420814424299</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>582</v>
@@ -6891,19 +6891,19 @@
         <v>476518</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>442072</v>
+        <v>443141</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>515490</v>
+        <v>514427</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3375247882072031</v>
+        <v>0.3375247882072032</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.313126241047202</v>
+        <v>0.3138834977089477</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3651291026251272</v>
+        <v>0.3643765120313412</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>175256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>151865</v>
+        <v>151232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>200193</v>
+        <v>199995</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2559337058952736</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2217741992077558</v>
+        <v>0.2208502597916723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2923508124383782</v>
+        <v>0.2920614037772933</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>252</v>
@@ -6941,19 +6941,19 @@
         <v>154995</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>136756</v>
+        <v>138237</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>173477</v>
+        <v>176161</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2131889156839823</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1881018927251449</v>
+        <v>0.1901394474806438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2386097724027088</v>
+        <v>0.2423017053974838</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>427</v>
@@ -6962,19 +6962,19 @@
         <v>330251</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>300695</v>
+        <v>300314</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>361625</v>
+        <v>360980</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2339215708010126</v>
+        <v>0.2339215708010127</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.212986821845968</v>
+        <v>0.2127171500921797</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2561445359454109</v>
+        <v>0.255687196140162</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>123333</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>105036</v>
+        <v>104600</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>146032</v>
+        <v>144067</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1801079389882995</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1533880580828471</v>
+        <v>0.1527523602975262</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2132565795968925</v>
+        <v>0.2103878360639858</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>281</v>
@@ -7012,19 +7012,19 @@
         <v>159015</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>141169</v>
+        <v>142701</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>178707</v>
+        <v>176592</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2187176735984379</v>
+        <v>0.218717673598438</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1941719470752342</v>
+        <v>0.1962792575963601</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2458041673425674</v>
+        <v>0.2428941744634247</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>418</v>
@@ -7033,19 +7033,19 @@
         <v>282347</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>254946</v>
+        <v>255282</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>311273</v>
+        <v>311664</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1999906589640178</v>
+        <v>0.1999906589640179</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1805819378880478</v>
+        <v>0.1808198067360336</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2204789079570557</v>
+        <v>0.22075631962626</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>140598</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121740</v>
+        <v>122491</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>165285</v>
+        <v>161965</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2053209161473943</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1777816681268321</v>
+        <v>0.1788787967430314</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2413720961705243</v>
+        <v>0.2365238526493908</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>349</v>
@@ -7083,19 +7083,19 @@
         <v>182088</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165280</v>
+        <v>163140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>201454</v>
+        <v>200870</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2504540768280472</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2273361344939705</v>
+        <v>0.2243926478703316</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2770917059508742</v>
+        <v>0.2762882044982697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>524</v>
@@ -7104,19 +7104,19 @@
         <v>322686</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>297183</v>
+        <v>295256</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>351379</v>
+        <v>353104</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2285629820277664</v>
+        <v>0.2285629820277665</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2104991006770811</v>
+        <v>0.2091341910947888</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2488870799065949</v>
+        <v>0.2501088136077853</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>348600</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>313523</v>
+        <v>312640</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>385423</v>
+        <v>386953</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3339619934957695</v>
+        <v>0.3339619934957694</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3003577263844198</v>
+        <v>0.2995122906965986</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3692390479629882</v>
+        <v>0.3707044885203189</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>358</v>
@@ -7229,19 +7229,19 @@
         <v>283808</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>256817</v>
+        <v>258477</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>312100</v>
+        <v>311602</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.266458832177573</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2411175491016199</v>
+        <v>0.2426757494362975</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2930208559180716</v>
+        <v>0.2925531854554466</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>641</v>
@@ -7250,19 +7250,19 @@
         <v>632408</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>583732</v>
+        <v>585269</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>674929</v>
+        <v>677443</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2998698450606654</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2767887545606232</v>
+        <v>0.2775178966928505</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3200316726256409</v>
+        <v>0.3212241709564784</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>258249</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>229576</v>
+        <v>225691</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>288023</v>
+        <v>289592</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2474047865256514</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2199358982731743</v>
+        <v>0.2162140172316281</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2759287173308086</v>
+        <v>0.277431551221584</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>353</v>
@@ -7300,19 +7300,19 @@
         <v>258110</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>235143</v>
+        <v>235050</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>284066</v>
+        <v>284919</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2423315744292818</v>
+        <v>0.2423315744292817</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2207681183580499</v>
+        <v>0.2206808759031876</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2667005679181148</v>
+        <v>0.2675014304825635</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>583</v>
@@ -7321,19 +7321,19 @@
         <v>516359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>477519</v>
+        <v>479850</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>554338</v>
+        <v>557841</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2448425850456805</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2264257191682372</v>
+        <v>0.2275310850106742</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.262851194212639</v>
+        <v>0.2645121954510968</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>254448</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>227415</v>
+        <v>226584</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>287671</v>
+        <v>287315</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2437638500009724</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.217865639198068</v>
+        <v>0.217069241756474</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2755914002536477</v>
+        <v>0.2752509359678005</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>324</v>
@@ -7371,19 +7371,19 @@
         <v>224614</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>201660</v>
+        <v>202437</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>248227</v>
+        <v>249482</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2108829630362268</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1893326262107447</v>
+        <v>0.19006176211529</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.233052963919573</v>
+        <v>0.2342311080600988</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>568</v>
@@ -7392,19 +7392,19 @@
         <v>479062</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>444803</v>
+        <v>435521</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>524768</v>
+        <v>516703</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2271575154650844</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2109129514553252</v>
+        <v>0.2065115583955338</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2488298617702931</v>
+        <v>0.2450056140614526</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>182534</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>157860</v>
+        <v>155758</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>207199</v>
+        <v>207871</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1748693699776067</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1512313617171389</v>
+        <v>0.1492174913776027</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1984987917281289</v>
+        <v>0.1991426958519427</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>471</v>
@@ -7442,19 +7442,19 @@
         <v>298579</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>275924</v>
+        <v>273389</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>325933</v>
+        <v>323928</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2803266303569185</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2590564120571755</v>
+        <v>0.2566765630943851</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3060080936348147</v>
+        <v>0.304126454962896</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>673</v>
@@ -7463,19 +7463,19 @@
         <v>481113</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>445850</v>
+        <v>447091</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>515574</v>
+        <v>518575</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2281300544285697</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2114092802481426</v>
+        <v>0.2119977681746721</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.244470293651621</v>
+        <v>0.2458933463016217</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>250149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>221788</v>
+        <v>221798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>282570</v>
+        <v>285458</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3125519882782275</v>
+        <v>0.3125519882782276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2771161073833986</v>
+        <v>0.2771280106135897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3530606845768857</v>
+        <v>0.3566687170952869</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>253</v>
@@ -7588,19 +7588,19 @@
         <v>205065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>182962</v>
+        <v>182899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>227977</v>
+        <v>230058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2530404361489703</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2257671328920113</v>
+        <v>0.225688829227196</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2813132242084515</v>
+        <v>0.2838805209128031</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>450</v>
@@ -7609,19 +7609,19 @@
         <v>455214</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>418116</v>
+        <v>414191</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>496880</v>
+        <v>494801</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2826104138532584</v>
+        <v>0.2826104138532585</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2595784545325964</v>
+        <v>0.2571421564064209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3084775612535906</v>
+        <v>0.3071871007764689</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>228330</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>199367</v>
+        <v>199611</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>257769</v>
+        <v>257893</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2852890801818267</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2491017217560246</v>
+        <v>0.2494064627817456</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3220720003787279</v>
+        <v>0.3222269328162833</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>262</v>
@@ -7659,19 +7659,19 @@
         <v>196757</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>175616</v>
+        <v>175061</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>220145</v>
+        <v>220443</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2427887636900363</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2167021142916154</v>
+        <v>0.21601750938135</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2716492482807769</v>
+        <v>0.2720168516015586</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>457</v>
@@ -7680,19 +7680,19 @@
         <v>425087</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>390381</v>
+        <v>389292</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>464214</v>
+        <v>465667</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2639062335950028</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2423602217998139</v>
+        <v>0.2416837384834547</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2881977256346525</v>
+        <v>0.2890994842053385</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>154513</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>128669</v>
+        <v>128991</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>180272</v>
+        <v>178793</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1930578178353676</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1607671786518922</v>
+        <v>0.1611697001752919</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2252424183842262</v>
+        <v>0.2233946494940805</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>244</v>
@@ -7730,19 +7730,19 @@
         <v>188031</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167076</v>
+        <v>167475</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>211437</v>
+        <v>210654</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2320222116914041</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.206164049526738</v>
+        <v>0.2066568526489053</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2609032082820961</v>
+        <v>0.2599374090456179</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>376</v>
@@ -7751,19 +7751,19 @@
         <v>342545</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>311117</v>
+        <v>308294</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>380963</v>
+        <v>378865</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2126616637580951</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1931508060896896</v>
+        <v>0.1913981498303923</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2365129935198133</v>
+        <v>0.2352106842378847</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>167353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>143163</v>
+        <v>143452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192930</v>
+        <v>194369</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2091011137045781</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1788761575100715</v>
+        <v>0.179238294104925</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2410581066607264</v>
+        <v>0.2428564618513673</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>285</v>
@@ -7801,19 +7801,19 @@
         <v>220550</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>196113</v>
+        <v>195784</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>243962</v>
+        <v>242832</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2721485884695893</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2419938510730406</v>
+        <v>0.2415880286177506</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3010380857010389</v>
+        <v>0.2996431212912229</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>435</v>
@@ -7822,19 +7822,19 @@
         <v>387903</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>352833</v>
+        <v>352716</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>425102</v>
+        <v>424349</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2408216887936437</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2190487512830952</v>
+        <v>0.2189765084416706</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2639158182801801</v>
+        <v>0.2634481606345414</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>298864</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>267736</v>
+        <v>266539</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>329585</v>
+        <v>331117</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3030595676278884</v>
+        <v>0.3030595676278885</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2714950032064639</v>
+        <v>0.2702814006608001</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3342123338971064</v>
+        <v>0.3357660788301854</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>366</v>
@@ -7947,19 +7947,19 @@
         <v>271097</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>246540</v>
+        <v>245919</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>297271</v>
+        <v>298470</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2435554285128777</v>
+        <v>0.2435554285128778</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2214930404218463</v>
+        <v>0.220934987669085</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2670705694454694</v>
+        <v>0.2681474477932744</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>655</v>
@@ -7968,19 +7968,19 @@
         <v>569961</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>530120</v>
+        <v>531642</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>608942</v>
+        <v>613785</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2715085782679251</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2525296214806492</v>
+        <v>0.2532549287930562</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2900775694882064</v>
+        <v>0.2923846577160527</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>239088</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>210200</v>
+        <v>210778</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>266438</v>
+        <v>269979</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.24244496906872</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2131509294655453</v>
+        <v>0.2137374320722933</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.270179087532737</v>
+        <v>0.2737697715736175</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>309</v>
@@ -8018,19 +8018,19 @@
         <v>228674</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>206930</v>
+        <v>203746</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256364</v>
+        <v>253522</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2054421574484762</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.185907325976845</v>
+        <v>0.1830463639745986</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2303189899161975</v>
+        <v>0.2277660012855139</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>541</v>
@@ -8039,19 +8039,19 @@
         <v>467762</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>430666</v>
+        <v>429916</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>510770</v>
+        <v>504327</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2228249000603688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2051535857650755</v>
+        <v>0.2047963670678467</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2433122006609542</v>
+        <v>0.2402430408145513</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>247677</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>219583</v>
+        <v>217648</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>277639</v>
+        <v>278613</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2511543375035306</v>
+        <v>0.2511543375035307</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2226660883004063</v>
+        <v>0.2207040607638931</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2815373620107202</v>
+        <v>0.2825240957822744</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>404</v>
@@ -8089,19 +8089,19 @@
         <v>282710</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>257739</v>
+        <v>258836</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>308081</v>
+        <v>309526</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2539884301776161</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2315545189495642</v>
+        <v>0.2325401912168816</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2767818990339627</v>
+        <v>0.2780798733018511</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>659</v>
@@ -8110,19 +8110,19 @@
         <v>530387</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>486345</v>
+        <v>492811</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>569223</v>
+        <v>566406</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2526570636858621</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2316769242799276</v>
+        <v>0.234756985078307</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2711571084483227</v>
+        <v>0.2698151448282128</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>200526</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>176339</v>
+        <v>174638</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>230023</v>
+        <v>226214</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2033411257998609</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1788147389431795</v>
+        <v>0.1770894209699587</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2332527260681115</v>
+        <v>0.2293895474707697</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>475</v>
@@ -8160,19 +8160,19 @@
         <v>330601</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>305776</v>
+        <v>303608</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>356886</v>
+        <v>358476</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2970139838610298</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2747111813442475</v>
+        <v>0.2727638129294227</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3206289913692945</v>
+        <v>0.3220570105060427</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>700</v>
@@ -8181,19 +8181,19 @@
         <v>531127</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>494901</v>
+        <v>492219</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>574464</v>
+        <v>568509</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.253009457985844</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2357528956482507</v>
+        <v>0.2344751200656444</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2736536176646485</v>
+        <v>0.2708170794366422</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>1143198</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1084309</v>
+        <v>1082017</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1212689</v>
+        <v>1207354</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3252245683758999</v>
+        <v>0.3252245683759</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3084714415586203</v>
+        <v>0.3078194235683971</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3449938230473515</v>
+        <v>0.3434761641691328</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1322</v>
@@ -8306,19 +8306,19 @@
         <v>990904</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>942195</v>
+        <v>942779</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1038793</v>
+        <v>1046205</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2666854696833382</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.253576194308521</v>
+        <v>0.2537333906919748</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2795741634859713</v>
+        <v>0.2815689636314234</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2328</v>
@@ -8327,19 +8327,19 @@
         <v>2134102</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2058008</v>
+        <v>2056036</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2216699</v>
+        <v>2215733</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2951433065962735</v>
+        <v>0.2951433065962734</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2846196238898808</v>
+        <v>0.2843469153412809</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3065664163640692</v>
+        <v>0.3064328116914991</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>900923</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>840358</v>
+        <v>840900</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>953048</v>
+        <v>956238</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2563006104775423</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2390707859631402</v>
+        <v>0.2392249852435103</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2711293791415113</v>
+        <v>0.2720369408208964</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1176</v>
@@ -8377,19 +8377,19 @@
         <v>838536</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>795771</v>
+        <v>789794</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>885857</v>
+        <v>884685</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.225678113768163</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2141686112533448</v>
+        <v>0.2125602064211627</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2384138206338096</v>
+        <v>0.2380985435670809</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2008</v>
@@ -8398,19 +8398,19 @@
         <v>1739459</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1667602</v>
+        <v>1655688</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1821020</v>
+        <v>1814038</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2405647457233138</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2306271179521445</v>
+        <v>0.2289793341561497</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2518445755128427</v>
+        <v>0.2508790010814772</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>779971</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>725442</v>
+        <v>726319</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>836013</v>
+        <v>836197</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2218913996737528</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2063785722896909</v>
+        <v>0.2066280690625307</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2378344687498413</v>
+        <v>0.2378869390953318</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1253</v>
@@ -8448,19 +8448,19 @@
         <v>854370</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>809378</v>
+        <v>807293</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>901783</v>
+        <v>898886</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2299395896920737</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2178307497214391</v>
+        <v>0.2172695380542159</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2427001706253484</v>
+        <v>0.2419203175032282</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2021</v>
@@ -8469,19 +8469,19 @@
         <v>1634341</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1559252</v>
+        <v>1562791</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1704981</v>
+        <v>1706006</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.226027092163054</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2156424244482236</v>
+        <v>0.2161319005441875</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2357965204085896</v>
+        <v>0.2359382281103734</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>691011</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>642383</v>
+        <v>646206</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>742918</v>
+        <v>736208</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1965834214728048</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.182749458011709</v>
+        <v>0.1838368712158847</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2113502484598968</v>
+        <v>0.2094412376526402</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1580</v>
@@ -8519,19 +8519,19 @@
         <v>1031818</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>982524</v>
+        <v>983078</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1080756</v>
+        <v>1082879</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.277696826856425</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2644302021651369</v>
+        <v>0.2645792947983531</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2908677861580445</v>
+        <v>0.2914389901188402</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2332</v>
@@ -8540,19 +8540,19 @@
         <v>1722829</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1654069</v>
+        <v>1659166</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1792531</v>
+        <v>1794427</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2382648555173587</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2287554907899446</v>
+        <v>0.2294603576448223</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2479045297472041</v>
+        <v>0.2481668419143679</v>
       </c>
     </row>
     <row r="28">
